--- a/csv_test/ENERO 03012025 --- Lista de Precios Nro. 193 Vigencia 03-01-2025 Ferring.xlsx
+++ b/csv_test/ENERO 03012025 --- Lista de Precios Nro. 193 Vigencia 03-01-2025 Ferring.xlsx
@@ -262,9 +262,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00 _$_-;-* #,##0.00 _$_-;_-* &quot;-&quot;?? _$_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00 _$_-;-* #,##0.00 _$_-;_-* &quot;-&quot;?? _$_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="15">
@@ -494,12 +494,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -527,10 +527,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
@@ -597,13 +597,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,23 +616,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1136,9 +1127,10 @@
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A28" ySplit="15"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31:J51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="G1">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="G16" ySplit="15"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2176,7 +2168,7 @@
       <c r="K17" s="48">
         <v>206724.03448275861</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2201,7 +2193,7 @@
       <c r="K18" s="48">
         <v>127590.55862068966</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2226,7 +2218,7 @@
       <c r="K19" s="48">
         <v>63458.475862068961</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2251,7 +2243,7 @@
       <c r="K20" s="48">
         <v>120032.69655172415</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2276,7 +2268,7 @@
       <c r="K21" s="48">
         <v>66102.365517241371</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2301,7 +2293,7 @@
       <c r="K22" s="48">
         <v>265128.59999999998</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2326,7 +2318,7 @@
       <c r="K23" s="48">
         <v>481680.08965517243</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2351,7 +2343,7 @@
       <c r="K24" s="48">
         <v>522347.20689655171</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2376,7 +2368,7 @@
       <c r="K25" s="48">
         <v>1025566.8965517242</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2401,7 +2393,7 @@
       <c r="K26" s="48">
         <v>389574.62758620689</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2426,7 +2418,7 @@
       <c r="K27" s="48">
         <v>256999.22758620692</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2451,7 +2443,7 @@
       <c r="K28" s="48">
         <v>12</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L28" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2470,13 +2462,13 @@
       </c>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
-      <c r="J29" s="55">
+      <c r="J29" s="54">
         <v>74609.809062410946</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="48">
         <v>12</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2495,13 +2487,13 @@
       </c>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
-      <c r="J30" s="55">
+      <c r="J30" s="54">
         <v>725166.20689655177</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="48">
         <v>12</v>
       </c>
-      <c r="L30" s="54">
+      <c r="L30" s="49">
         <v>21211.139999999999</v>
       </c>
     </row>
@@ -2520,10 +2512,10 @@
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="53"/>
-      <c r="J31" s="55">
+      <c r="J31" s="54">
         <v>1</v>
       </c>
-      <c r="K31" s="56">
+      <c r="K31" s="48">
         <v>12</v>
       </c>
       <c r="L31" s="49">
@@ -2545,13 +2537,13 @@
       </c>
       <c r="G32" s="53"/>
       <c r="H32" s="53"/>
-      <c r="J32" s="57">
+      <c r="J32" s="54">
         <v>1</v>
       </c>
-      <c r="K32" s="56">
+      <c r="K32" s="48">
         <v>12</v>
       </c>
-      <c r="L32" s="54">
+      <c r="L32" s="49">
         <v>12</v>
       </c>
     </row>
@@ -2570,13 +2562,13 @@
       </c>
       <c r="G33" s="53"/>
       <c r="H33" s="53"/>
-      <c r="J33" s="57">
+      <c r="J33" s="54">
         <v>1</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K33" s="48">
         <v>12</v>
       </c>
-      <c r="L33" s="54">
+      <c r="L33" s="49">
         <v>12</v>
       </c>
     </row>
@@ -2595,13 +2587,13 @@
       </c>
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
-      <c r="J34" s="57">
+      <c r="J34" s="54">
         <v>1</v>
       </c>
-      <c r="K34" s="56">
+      <c r="K34" s="48">
         <v>12</v>
       </c>
-      <c r="L34" s="54">
+      <c r="L34" s="49">
         <v>12</v>
       </c>
     </row>
@@ -2620,13 +2612,13 @@
       </c>
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
-      <c r="J35" s="57">
+      <c r="J35" s="54">
         <v>1</v>
       </c>
-      <c r="K35" s="56">
+      <c r="K35" s="48">
         <v>12</v>
       </c>
-      <c r="L35" s="54">
+      <c r="L35" s="49">
         <v>12</v>
       </c>
     </row>
@@ -2645,13 +2637,13 @@
       </c>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
-      <c r="J36" s="57">
+      <c r="J36" s="54">
         <v>1</v>
       </c>
-      <c r="K36" s="56">
+      <c r="K36" s="48">
         <v>12</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="49">
         <v>12</v>
       </c>
     </row>
@@ -2670,13 +2662,13 @@
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="53"/>
-      <c r="J37" s="57">
+      <c r="J37" s="54">
         <v>1</v>
       </c>
-      <c r="K37" s="56">
+      <c r="K37" s="48">
         <v>12</v>
       </c>
-      <c r="L37" s="54">
+      <c r="L37" s="49">
         <v>12</v>
       </c>
     </row>
@@ -2695,13 +2687,13 @@
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
-      <c r="J38" s="57">
+      <c r="J38" s="54">
         <v>1</v>
       </c>
-      <c r="K38" s="56">
+      <c r="K38" s="48">
         <v>12</v>
       </c>
-      <c r="L38" s="54">
+      <c r="L38" s="49">
         <v>12</v>
       </c>
     </row>
@@ -2720,10 +2712,10 @@
       </c>
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
-      <c r="J39" s="57">
+      <c r="J39" s="54">
         <v>1</v>
       </c>
-      <c r="K39" s="56">
+      <c r="K39" s="48">
         <v>12</v>
       </c>
       <c r="L39" s="49">
@@ -2745,10 +2737,10 @@
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
-      <c r="J40" s="57">
+      <c r="J40" s="54">
         <v>1</v>
       </c>
-      <c r="K40" s="56">
+      <c r="K40" s="48">
         <v>12</v>
       </c>
       <c r="L40" s="49">
@@ -2770,10 +2762,10 @@
       </c>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
-      <c r="J41" s="57">
+      <c r="J41" s="54">
         <v>1</v>
       </c>
-      <c r="K41" s="56">
+      <c r="K41" s="48">
         <v>12</v>
       </c>
       <c r="L41" s="49">
@@ -2795,10 +2787,10 @@
       </c>
       <c r="G42" s="53"/>
       <c r="H42" s="53"/>
-      <c r="J42" s="57">
+      <c r="J42" s="54">
         <v>1</v>
       </c>
-      <c r="K42" s="56">
+      <c r="K42" s="48">
         <v>12</v>
       </c>
       <c r="L42" s="49">
@@ -2820,10 +2812,10 @@
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="53"/>
-      <c r="J43" s="57">
+      <c r="J43" s="54">
         <v>1</v>
       </c>
-      <c r="K43" s="56">
+      <c r="K43" s="48">
         <v>12</v>
       </c>
       <c r="L43" s="49">
@@ -2845,10 +2837,10 @@
       </c>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
-      <c r="J44" s="57">
+      <c r="J44" s="54">
         <v>1</v>
       </c>
-      <c r="K44" s="56">
+      <c r="K44" s="48">
         <v>12</v>
       </c>
       <c r="L44" s="49">
@@ -2870,10 +2862,10 @@
       </c>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
-      <c r="J45" s="57">
+      <c r="J45" s="54">
         <v>1</v>
       </c>
-      <c r="K45" s="56">
+      <c r="K45" s="48">
         <v>12</v>
       </c>
       <c r="L45" s="49">
@@ -2895,10 +2887,10 @@
       </c>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
-      <c r="J46" s="57">
+      <c r="J46" s="54">
         <v>1</v>
       </c>
-      <c r="K46" s="56">
+      <c r="K46" s="48">
         <v>12</v>
       </c>
       <c r="L46" s="49">
@@ -2920,10 +2912,10 @@
       </c>
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
-      <c r="J47" s="57">
+      <c r="J47" s="54">
         <v>1</v>
       </c>
-      <c r="K47" s="56">
+      <c r="K47" s="48">
         <v>12</v>
       </c>
       <c r="L47" s="49">
@@ -2945,10 +2937,10 @@
       </c>
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
-      <c r="J48" s="57">
+      <c r="J48" s="54">
         <v>1</v>
       </c>
-      <c r="K48" s="56">
+      <c r="K48" s="48">
         <v>12</v>
       </c>
       <c r="L48" s="49">
@@ -2970,10 +2962,10 @@
       </c>
       <c r="G49" s="53"/>
       <c r="H49" s="53"/>
-      <c r="J49" s="57">
+      <c r="J49" s="54">
         <v>1</v>
       </c>
-      <c r="K49" s="56">
+      <c r="K49" s="48">
         <v>12</v>
       </c>
       <c r="L49" s="49">
@@ -2995,10 +2987,10 @@
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
-      <c r="J50" s="57">
+      <c r="J50" s="54">
         <v>1</v>
       </c>
-      <c r="K50" s="56">
+      <c r="K50" s="48">
         <v>12</v>
       </c>
       <c r="L50" s="49">
@@ -3020,10 +3012,10 @@
       </c>
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
-      <c r="J51" s="57">
+      <c r="J51" s="54">
         <v>1</v>
       </c>
-      <c r="K51" s="56">
+      <c r="K51" s="48">
         <v>12</v>
       </c>
       <c r="L51" s="49">
@@ -3033,10 +3025,10 @@
     <row r="52">
       <c r="A52" s="50"/>
       <c r="B52" s="51"/>
-      <c r="C52" s="58">
+      <c r="C52" s="55">
         <v>390000015953</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="55">
         <v>7795309002710</v>
       </c>
       <c r="E52" s="52"/>
@@ -3048,7 +3040,7 @@
       <c r="J52" s="47">
         <v>1139498.8258763179</v>
       </c>
-      <c r="K52" s="56">
+      <c r="K52" s="48">
         <v>12</v>
       </c>
       <c r="L52" s="49">
@@ -3058,10 +3050,10 @@
     <row r="53">
       <c r="A53" s="50"/>
       <c r="B53" s="51"/>
-      <c r="C53" s="58">
+      <c r="C53" s="55">
         <v>390000014025</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="55">
         <v>7795309002703</v>
       </c>
       <c r="E53" s="52"/>
@@ -3094,7 +3086,7 @@
         <v>62</v>
       </c>
       <c r="G54" s="53"/>
-      <c r="H54" s="59"/>
+      <c r="H54" s="56"/>
       <c r="J54" s="47">
         <v>130431.82673126248</v>
       </c>
@@ -3151,7 +3143,7 @@
       <c r="K56" s="48">
         <v>493056.29655172414</v>
       </c>
-      <c r="L56" s="60">
+      <c r="L56" s="57">
         <v>714931.63</v>
       </c>
     </row>
@@ -3176,12 +3168,12 @@
       <c r="K57" s="48">
         <v>986112.58620689658</v>
       </c>
-      <c r="L57" s="60">
+      <c r="L57" s="57">
         <v>1429863.25</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="61"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="51"/>
       <c r="C58" s="45"/>
       <c r="D58" s="45"/>
@@ -3189,12 +3181,12 @@
       <c r="F58" s="46"/>
       <c r="G58" s="53"/>
       <c r="H58" s="53"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
     </row>
     <row r="59">
-      <c r="A59" s="61"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="51"/>
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
@@ -3202,25 +3194,25 @@
       <c r="F59" s="46"/>
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="51"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
       <c r="E60" s="52"/>
-      <c r="F60" s="63"/>
+      <c r="F60" s="60"/>
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
     </row>
     <row r="61">
-      <c r="A61" s="61"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="51"/>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
@@ -3228,12 +3220,12 @@
       <c r="F61" s="46"/>
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
     </row>
     <row r="62">
-      <c r="A62" s="61"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="51"/>
       <c r="C62" s="45"/>
       <c r="D62" s="45"/>
@@ -3241,12 +3233,12 @@
       <c r="F62" s="46"/>
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
     </row>
     <row r="63">
-      <c r="A63" s="61"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="51"/>
       <c r="C63" s="45"/>
       <c r="D63" s="45"/>
@@ -3254,12 +3246,12 @@
       <c r="F63" s="46"/>
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
     </row>
     <row r="64">
-      <c r="A64" s="61"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="51"/>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
@@ -3267,12 +3259,12 @@
       <c r="F64" s="46"/>
       <c r="G64" s="53"/>
       <c r="H64" s="53"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
     </row>
     <row r="65">
-      <c r="A65" s="61"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="51"/>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
@@ -3280,12 +3272,12 @@
       <c r="F65" s="46"/>
       <c r="G65" s="53"/>
       <c r="H65" s="53"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
     </row>
     <row r="66">
-      <c r="A66" s="61"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="51"/>
       <c r="C66" s="45"/>
       <c r="D66" s="45"/>
@@ -3293,12 +3285,12 @@
       <c r="F66" s="46"/>
       <c r="G66" s="53"/>
       <c r="H66" s="53"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="62"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
     </row>
     <row r="67">
-      <c r="A67" s="61"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="51"/>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
@@ -3306,12 +3298,12 @@
       <c r="F67" s="46"/>
       <c r="G67" s="53"/>
       <c r="H67" s="53"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
     </row>
     <row r="68">
-      <c r="A68" s="61"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="51"/>
       <c r="C68" s="45"/>
       <c r="D68" s="45"/>
@@ -3319,12 +3311,12 @@
       <c r="F68" s="46"/>
       <c r="G68" s="53"/>
       <c r="H68" s="53"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="62"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
     </row>
     <row r="69">
-      <c r="A69" s="61"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="51"/>
       <c r="C69" s="45"/>
       <c r="D69" s="45"/>
@@ -3332,12 +3324,12 @@
       <c r="F69" s="46"/>
       <c r="G69" s="53"/>
       <c r="H69" s="53"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
     </row>
     <row r="70">
-      <c r="A70" s="61"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="51"/>
       <c r="C70" s="45"/>
       <c r="D70" s="45"/>
@@ -3345,12 +3337,12 @@
       <c r="F70" s="46"/>
       <c r="G70" s="53"/>
       <c r="H70" s="53"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
     </row>
     <row r="71">
-      <c r="A71" s="61"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="51"/>
       <c r="C71" s="45"/>
       <c r="D71" s="45"/>
@@ -3358,12 +3350,12 @@
       <c r="F71" s="46"/>
       <c r="G71" s="53"/>
       <c r="H71" s="53"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
     </row>
     <row r="72">
-      <c r="A72" s="61"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="51"/>
       <c r="C72" s="45"/>
       <c r="D72" s="45"/>
@@ -3371,12 +3363,12 @@
       <c r="F72" s="46"/>
       <c r="G72" s="53"/>
       <c r="H72" s="53"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
     </row>
     <row r="73">
-      <c r="A73" s="61"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="51"/>
       <c r="C73" s="45"/>
       <c r="D73" s="45"/>
@@ -3384,12 +3376,12 @@
       <c r="F73" s="46"/>
       <c r="G73" s="53"/>
       <c r="H73" s="53"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
     </row>
     <row r="74">
-      <c r="A74" s="61"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="51"/>
       <c r="C74" s="45"/>
       <c r="D74" s="45"/>
@@ -3397,12 +3389,12 @@
       <c r="F74" s="46"/>
       <c r="G74" s="53"/>
       <c r="H74" s="53"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
     </row>
     <row r="75">
-      <c r="A75" s="61"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="51"/>
       <c r="C75" s="45"/>
       <c r="D75" s="45"/>
@@ -3410,12 +3402,12 @@
       <c r="F75" s="46"/>
       <c r="G75" s="53"/>
       <c r="H75" s="53"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
     </row>
     <row r="76">
-      <c r="A76" s="61"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="51"/>
       <c r="C76" s="45"/>
       <c r="D76" s="45"/>
@@ -3423,12 +3415,12 @@
       <c r="F76" s="46"/>
       <c r="G76" s="53"/>
       <c r="H76" s="53"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
     </row>
     <row r="77">
-      <c r="A77" s="61"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="51"/>
       <c r="C77" s="45"/>
       <c r="D77" s="45"/>
@@ -3436,12 +3428,12 @@
       <c r="F77" s="46"/>
       <c r="G77" s="53"/>
       <c r="H77" s="53"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
     </row>
     <row r="78">
-      <c r="A78" s="61"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="51"/>
       <c r="C78" s="45"/>
       <c r="D78" s="45"/>
@@ -3449,12 +3441,12 @@
       <c r="F78" s="46"/>
       <c r="G78" s="53"/>
       <c r="H78" s="53"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
     </row>
     <row r="79">
-      <c r="A79" s="61"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="51"/>
       <c r="C79" s="45"/>
       <c r="D79" s="45"/>
@@ -3462,12 +3454,12 @@
       <c r="F79" s="46"/>
       <c r="G79" s="53"/>
       <c r="H79" s="53"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="62"/>
-      <c r="L79" s="62"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
     </row>
     <row r="80">
-      <c r="A80" s="61"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="51"/>
       <c r="C80" s="45"/>
       <c r="D80" s="45"/>
@@ -3475,12 +3467,12 @@
       <c r="F80" s="46"/>
       <c r="G80" s="53"/>
       <c r="H80" s="53"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="62"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="59"/>
     </row>
     <row r="81">
-      <c r="A81" s="61"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="51"/>
       <c r="C81" s="45"/>
       <c r="D81" s="45"/>
@@ -3488,12 +3480,12 @@
       <c r="F81" s="46"/>
       <c r="G81" s="53"/>
       <c r="H81" s="53"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="62"/>
-      <c r="L81" s="62"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
     </row>
     <row r="82">
-      <c r="A82" s="61"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="51"/>
       <c r="C82" s="45"/>
       <c r="D82" s="45"/>
@@ -3501,12 +3493,12 @@
       <c r="F82" s="46"/>
       <c r="G82" s="53"/>
       <c r="H82" s="53"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
     </row>
     <row r="83">
-      <c r="A83" s="61"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="51"/>
       <c r="C83" s="45"/>
       <c r="D83" s="45"/>
@@ -3514,12 +3506,12 @@
       <c r="F83" s="46"/>
       <c r="G83" s="53"/>
       <c r="H83" s="53"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="59"/>
     </row>
     <row r="84">
-      <c r="A84" s="61"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="51"/>
       <c r="C84" s="45"/>
       <c r="D84" s="45"/>
@@ -3527,12 +3519,12 @@
       <c r="F84" s="46"/>
       <c r="G84" s="53"/>
       <c r="H84" s="53"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
     </row>
     <row r="85">
-      <c r="A85" s="61"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="51"/>
       <c r="C85" s="45"/>
       <c r="D85" s="45"/>
@@ -3540,12 +3532,12 @@
       <c r="F85" s="46"/>
       <c r="G85" s="53"/>
       <c r="H85" s="53"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="62"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
     </row>
     <row r="86">
-      <c r="A86" s="61"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="51"/>
       <c r="C86" s="45"/>
       <c r="D86" s="45"/>
@@ -3553,12 +3545,12 @@
       <c r="F86" s="46"/>
       <c r="G86" s="53"/>
       <c r="H86" s="53"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
     </row>
     <row r="87">
-      <c r="A87" s="61"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="51"/>
       <c r="C87" s="45"/>
       <c r="D87" s="45"/>
@@ -3566,12 +3558,12 @@
       <c r="F87" s="46"/>
       <c r="G87" s="53"/>
       <c r="H87" s="53"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
     </row>
     <row r="88">
-      <c r="A88" s="61"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="51"/>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
@@ -3579,12 +3571,12 @@
       <c r="F88" s="46"/>
       <c r="G88" s="53"/>
       <c r="H88" s="53"/>
-      <c r="J88" s="62"/>
-      <c r="K88" s="62"/>
-      <c r="L88" s="62"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
     </row>
     <row r="89">
-      <c r="A89" s="61"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="51"/>
       <c r="C89" s="45"/>
       <c r="D89" s="45"/>
@@ -3592,12 +3584,12 @@
       <c r="F89" s="46"/>
       <c r="G89" s="53"/>
       <c r="H89" s="53"/>
-      <c r="J89" s="62"/>
-      <c r="K89" s="62"/>
-      <c r="L89" s="62"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
     </row>
     <row r="90">
-      <c r="A90" s="61"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="51"/>
       <c r="C90" s="45"/>
       <c r="D90" s="45"/>
@@ -3605,12 +3597,12 @@
       <c r="F90" s="46"/>
       <c r="G90" s="53"/>
       <c r="H90" s="53"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="62"/>
-      <c r="L90" s="62"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
     </row>
     <row r="91">
-      <c r="A91" s="61"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="51"/>
       <c r="C91" s="45"/>
       <c r="D91" s="45"/>
@@ -3618,12 +3610,12 @@
       <c r="F91" s="46"/>
       <c r="G91" s="53"/>
       <c r="H91" s="53"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="62"/>
-      <c r="L91" s="62"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
     </row>
     <row r="92">
-      <c r="A92" s="61"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="51"/>
       <c r="C92" s="45"/>
       <c r="D92" s="45"/>
@@ -3631,153 +3623,153 @@
       <c r="F92" s="46"/>
       <c r="G92" s="53"/>
       <c r="H92" s="53"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
-      <c r="L92" s="62"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
     </row>
     <row r="93">
-      <c r="A93" s="61"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="51"/>
       <c r="C93" s="45"/>
       <c r="D93" s="51"/>
       <c r="E93" s="52"/>
-      <c r="F93" s="64"/>
+      <c r="F93" s="61"/>
       <c r="G93" s="53"/>
       <c r="H93" s="53"/>
-      <c r="J93" s="62"/>
-      <c r="K93" s="62"/>
-      <c r="L93" s="62"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
     </row>
     <row r="94">
-      <c r="A94" s="65"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
       <c r="G94" s="53"/>
       <c r="H94" s="53"/>
-      <c r="J94" s="62"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="62"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
     </row>
     <row r="95">
-      <c r="A95" s="65"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
+      <c r="A95" s="62"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
       <c r="G95" s="53"/>
       <c r="H95" s="53"/>
-      <c r="J95" s="62"/>
-      <c r="K95" s="62"/>
-      <c r="L95" s="62"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
     </row>
     <row r="96">
-      <c r="A96" s="65"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
       <c r="G96" s="53"/>
       <c r="H96" s="53"/>
-      <c r="J96" s="62"/>
-      <c r="K96" s="62"/>
-      <c r="L96" s="62"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
     </row>
     <row r="97">
-      <c r="A97" s="65"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
       <c r="G97" s="53"/>
       <c r="H97" s="53"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
     </row>
     <row r="98">
-      <c r="A98" s="65"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
       <c r="G98" s="53"/>
       <c r="H98" s="53"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="62"/>
-      <c r="L98" s="62"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
     </row>
     <row r="99">
-      <c r="A99" s="65"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="J99" s="62"/>
-      <c r="K99" s="62"/>
-      <c r="L99" s="62"/>
+      <c r="A99" s="62"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
     </row>
     <row r="100">
-      <c r="A100" s="65"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="J100" s="62"/>
-      <c r="K100" s="62"/>
-      <c r="L100" s="62"/>
+      <c r="A100" s="62"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
     </row>
     <row r="101">
-      <c r="A101" s="65"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="J101" s="62"/>
-      <c r="K101" s="62"/>
-      <c r="L101" s="62"/>
+      <c r="A101" s="62"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
     </row>
     <row r="102">
-      <c r="A102" s="65"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
-      <c r="L102" s="62"/>
+      <c r="A102" s="62"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+      <c r="L102" s="59"/>
     </row>
     <row r="103">
-      <c r="A103" s="65"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
-      <c r="L103" s="62"/>
+      <c r="A103" s="62"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59"/>
     </row>
     <row r="104">
-      <c r="A104" s="65"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="62"/>
-      <c r="L104" s="62"/>
+      <c r="A104" s="62"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:L54"/>

--- a/csv_test/ENERO 03012025 --- Lista de Precios Nro. 193 Vigencia 03-01-2025 Ferring.xlsx
+++ b/csv_test/ENERO 03012025 --- Lista de Precios Nro. 193 Vigencia 03-01-2025 Ferring.xlsx
@@ -101,10 +101,13 @@
     <t>Envase</t>
   </si>
   <si>
-    <t>DROGUERIA</t>
-  </si>
-  <si>
-    <t>SUGERIDO</t>
+    <t>DROGUERIA sin iva</t>
+  </si>
+  <si>
+    <t>DROGUERIA con iva</t>
+  </si>
+  <si>
+    <t>SUGERIDO publico</t>
   </si>
   <si>
     <t>N°</t>
@@ -1130,7 +1133,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="G1">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="G16" ySplit="15"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2067,24 +2070,24 @@
         <v>14</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -2092,13 +2095,13 @@
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
       <c r="J14" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" thickBot="1" ht="13.5">
@@ -2112,13 +2115,13 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" s="42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -2132,7 +2135,7 @@
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -2158,7 +2161,7 @@
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -2183,7 +2186,7 @@
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -2208,7 +2211,7 @@
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -2233,7 +2236,7 @@
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -2258,7 +2261,7 @@
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -2283,7 +2286,7 @@
       </c>
       <c r="E22" s="52"/>
       <c r="F22" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
@@ -2308,7 +2311,7 @@
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
@@ -2333,7 +2336,7 @@
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="53"/>
@@ -2358,7 +2361,7 @@
       </c>
       <c r="E25" s="52"/>
       <c r="F25" s="46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -2383,7 +2386,7 @@
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
@@ -2408,7 +2411,7 @@
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="53"/>
       <c r="H27" s="53"/>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" s="53"/>
       <c r="H28" s="53"/>
@@ -2458,7 +2461,7 @@
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
@@ -2483,7 +2486,7 @@
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
@@ -2508,7 +2511,7 @@
       </c>
       <c r="E31" s="52"/>
       <c r="F31" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="53"/>
@@ -2533,7 +2536,7 @@
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" s="53"/>
       <c r="H32" s="53"/>
@@ -2558,7 +2561,7 @@
       </c>
       <c r="E33" s="52"/>
       <c r="F33" s="46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" s="53"/>
       <c r="H33" s="53"/>
@@ -2583,7 +2586,7 @@
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
@@ -2608,7 +2611,7 @@
       </c>
       <c r="E35" s="52"/>
       <c r="F35" s="46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
@@ -2633,7 +2636,7 @@
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
@@ -2658,7 +2661,7 @@
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="53"/>
@@ -2683,7 +2686,7 @@
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
@@ -2708,7 +2711,7 @@
       </c>
       <c r="E39" s="52"/>
       <c r="F39" s="46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
@@ -2733,7 +2736,7 @@
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
@@ -2758,7 +2761,7 @@
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
@@ -2783,7 +2786,7 @@
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G42" s="53"/>
       <c r="H42" s="53"/>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="53"/>
@@ -2833,7 +2836,7 @@
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
@@ -2858,7 +2861,7 @@
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
@@ -2883,7 +2886,7 @@
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
@@ -2908,7 +2911,7 @@
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
@@ -2933,7 +2936,7 @@
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
@@ -2958,7 +2961,7 @@
       </c>
       <c r="E49" s="52"/>
       <c r="F49" s="46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G49" s="53"/>
       <c r="H49" s="53"/>
@@ -2983,7 +2986,7 @@
       </c>
       <c r="E50" s="52"/>
       <c r="F50" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
@@ -3033,7 +3036,7 @@
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
@@ -3058,7 +3061,7 @@
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
@@ -3083,7 +3086,7 @@
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G54" s="53"/>
       <c r="H54" s="56"/>
@@ -3108,7 +3111,7 @@
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
@@ -3133,7 +3136,7 @@
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
@@ -3158,7 +3161,7 @@
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
@@ -3791,12 +3794,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3982,13 +3982,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F59770E-1337-42BB-860E-7E6E60F7448B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E68BFAF6-B182-4773-B250-50BF13B6348C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
   </ds:schemaRefs>
@@ -4004,7 +4007,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E68BFAF6-B182-4773-B250-50BF13B6348C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F59770E-1337-42BB-860E-7E6E60F7448B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
   </ds:schemaRefs>
